--- a/VDO测试结果统计 ver3.23.xlsx
+++ b/VDO测试结果统计 ver3.23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wxw\Desktop\intel-vdo-note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D61DD41-542D-48B3-BE69-375EA9E625B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BE0041-1814-483B-B423-A11379E829F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="48" windowWidth="20472" windowHeight="12168" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1323,6 +1323,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1331,15 +1340,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1712,18 +1712,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -1935,18 +1935,18 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
@@ -2065,21 +2065,21 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2120,7 +2120,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2195,21 +2195,21 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2250,7 +2250,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2325,21 +2325,21 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2380,7 +2380,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
@@ -2455,21 +2455,21 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2510,7 +2510,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
@@ -2585,21 +2585,21 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2640,7 +2640,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
@@ -2715,21 +2715,21 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2770,7 +2770,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
@@ -2845,21 +2845,21 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2900,7 +2900,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="5" t="s">
         <v>20</v>
       </c>
@@ -2916,7 +2916,7 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="5" t="s">
         <v>19</v>
       </c>
@@ -2952,21 +2952,21 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3007,7 +3007,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="4" t="s">
         <v>19</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="5" t="s">
         <v>20</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
@@ -3160,23 +3160,23 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3217,7 +3217,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="4" t="s">
         <v>20</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
@@ -3273,7 +3273,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="5" t="s">
         <v>18</v>
       </c>
@@ -3315,7 +3315,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="5" t="s">
         <v>20</v>
       </c>
@@ -3354,7 +3354,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="5" t="s">
         <v>19</v>
       </c>
@@ -3390,21 +3390,21 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -3448,7 +3448,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="4" t="s">
         <v>20</v>
       </c>
@@ -3487,7 +3487,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
@@ -3523,21 +3523,21 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="4" t="s">
         <v>20</v>
       </c>
@@ -3617,7 +3617,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="4" t="s">
         <v>21</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="4" t="s">
         <v>19</v>
       </c>
@@ -3669,21 +3669,21 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3724,7 +3724,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3763,7 +3763,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="5" t="s">
         <v>19</v>
       </c>
@@ -3815,21 +3815,21 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -3870,7 +3870,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="4" t="s">
         <v>21</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="4" t="s">
         <v>19</v>
       </c>
@@ -3958,21 +3958,21 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -4013,7 +4013,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="4" t="s">
         <v>19</v>
       </c>
@@ -4049,7 +4049,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="5" t="s">
         <v>18</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="5" t="s">
         <v>20</v>
       </c>
@@ -4128,7 +4128,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
+      <c r="A77" s="38"/>
       <c r="B77" s="5" t="s">
         <v>19</v>
       </c>
@@ -4165,21 +4165,21 @@
       <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -4220,7 +4220,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="5" t="s">
         <v>20</v>
       </c>
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="5" t="s">
         <v>19</v>
       </c>
@@ -4295,21 +4295,21 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -4332,7 +4332,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="4" t="s">
         <v>20</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="L84" s="8"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="4" t="s">
         <v>19</v>
       </c>
@@ -4366,18 +4366,18 @@
       <c r="L85" s="8"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
@@ -4421,18 +4421,15 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A86:L86"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A78:L78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A32:L32"/>
@@ -4449,16 +4446,19 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A86:L86"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A78:L78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A62:L62"/>
     <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A72:L72"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A57:L57"/>
@@ -6201,7 +6201,7 @@
   <dimension ref="B1:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6998,14 +6998,16 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>110</v>
       </c>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>89</v>
       </c>
+      <c r="D27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7029,7 +7031,7 @@
   <dimension ref="B2:U16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7132,7 +7134,7 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -7194,7 +7196,7 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
@@ -7254,7 +7256,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -7316,7 +7318,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
@@ -7376,7 +7378,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -7438,7 +7440,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
@@ -7498,7 +7500,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -7560,7 +7562,7 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
@@ -7620,7 +7622,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -7682,7 +7684,7 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
@@ -7777,7 +7779,7 @@
   <dimension ref="B2:Q13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8244,7 +8246,7 @@
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8571,14 +8573,18 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="14" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
         <v>132</v>
       </c>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>131</v>
       </c>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8600,7 +8606,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/VDO测试结果统计 ver3.23.xlsx
+++ b/VDO测试结果统计 ver3.23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wxw\Desktop\intel-vdo-note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BE0041-1814-483B-B423-A11379E829F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4509370F-5741-447E-8E32-0754BE9C4265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="48" windowWidth="20472" windowHeight="12168" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1323,15 +1323,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1341,6 +1332,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,6 +1342,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,21 +1712,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1767,7 +1767,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1806,7 +1806,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1881,7 +1881,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1935,21 +1935,21 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2065,21 +2065,21 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2120,7 +2120,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2195,21 +2195,21 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2250,7 +2250,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2325,21 +2325,21 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2380,7 +2380,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
@@ -2455,21 +2455,21 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2510,7 +2510,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
@@ -2585,21 +2585,21 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2640,7 +2640,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
@@ -2715,21 +2715,21 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2770,7 +2770,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
@@ -2845,21 +2845,21 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2900,7 +2900,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="5" t="s">
         <v>20</v>
       </c>
@@ -2916,7 +2916,7 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="5" t="s">
         <v>19</v>
       </c>
@@ -2952,21 +2952,21 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3007,7 +3007,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="4" t="s">
         <v>19</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="5" t="s">
         <v>20</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
@@ -3160,23 +3160,23 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3217,7 +3217,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="4" t="s">
         <v>20</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
@@ -3273,7 +3273,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="5" t="s">
         <v>18</v>
       </c>
@@ -3315,7 +3315,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="5" t="s">
         <v>20</v>
       </c>
@@ -3354,7 +3354,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="5" t="s">
         <v>19</v>
       </c>
@@ -3390,21 +3390,21 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -3448,7 +3448,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="4" t="s">
         <v>20</v>
       </c>
@@ -3487,7 +3487,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
@@ -3523,21 +3523,21 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="4" t="s">
         <v>20</v>
       </c>
@@ -3617,7 +3617,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="4" t="s">
         <v>21</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="4" t="s">
         <v>19</v>
       </c>
@@ -3669,21 +3669,21 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3724,7 +3724,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3763,7 +3763,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="5" t="s">
         <v>19</v>
       </c>
@@ -3815,21 +3815,21 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -3870,7 +3870,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="4" t="s">
         <v>21</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="4" t="s">
         <v>19</v>
       </c>
@@ -3958,21 +3958,21 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -4013,7 +4013,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="4" t="s">
         <v>19</v>
       </c>
@@ -4049,7 +4049,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="5" t="s">
         <v>18</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="5" t="s">
         <v>20</v>
       </c>
@@ -4128,7 +4128,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="5" t="s">
         <v>19</v>
       </c>
@@ -4165,21 +4165,21 @@
       <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -4220,7 +4220,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="5" t="s">
         <v>20</v>
       </c>
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="5" t="s">
         <v>19</v>
       </c>
@@ -4295,21 +4295,21 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -4332,7 +4332,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="4" t="s">
         <v>20</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="L84" s="8"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="4" t="s">
         <v>19</v>
       </c>
@@ -4366,18 +4366,18 @@
       <c r="L85" s="8"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
@@ -4421,15 +4421,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A86:L86"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A78:L78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A57:L57"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A32:L32"/>
@@ -4446,22 +4453,15 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A86:L86"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A78:L78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A47:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7134,7 +7134,7 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -7196,7 +7196,7 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
@@ -7256,7 +7256,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -7318,7 +7318,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
@@ -7378,7 +7378,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -7440,7 +7440,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
@@ -7500,7 +7500,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -7562,7 +7562,7 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
@@ -7622,7 +7622,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -7684,7 +7684,7 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
@@ -8246,7 +8246,7 @@
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B2" sqref="B2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8606,7 +8606,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
